--- a/docs/Sprint-Backlog Inicial.xlsx
+++ b/docs/Sprint-Backlog Inicial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -345,11 +345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56365568"/>
-        <c:axId val="80200256"/>
+        <c:axId val="81338368"/>
+        <c:axId val="138609216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56365568"/>
+        <c:axId val="81338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,7 +358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80200256"/>
+        <c:crossAx val="138609216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -366,7 +366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80200256"/>
+        <c:axId val="138609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56365568"/>
+        <c:crossAx val="81338368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,7 +729,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1018,19 +1018,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1204,6 +1192,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1251,32 +1251,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,6 +1270,32 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
